--- a/凉经.xlsx
+++ b/凉经.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\Typora\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166094D0-5DE0-41FE-B46F-C2BBCB2F2064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137F6CF6-E5EB-4212-BC7F-B3596E96857D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网易</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,31 +123,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月开学后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去哪儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业帮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度小满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腾讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱奇艺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九月开学后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去哪儿</t>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,43 +227,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>携程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小红书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业帮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>oppo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过</t>
+    <t>金山云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,19 +270,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -240,19 +294,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,10 +319,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,18 +334,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,238 +623,288 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>360</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
+      <c r="B19" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B35" s="3">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="3">
-        <v>8.23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A32:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
